--- a/resources/docs/Book1.xlsx
+++ b/resources/docs/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERROR-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERROR-PC\Documents\Projects\field-service-system\resources\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ASSET</t>
   </si>
@@ -83,9 +83,6 @@
     <t>PROCESSING DEVICES</t>
   </si>
   <si>
-    <t>SOFTWARE</t>
-  </si>
-  <si>
     <t>APPLICATION SOFTWARE</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>KEYER</t>
   </si>
   <si>
-    <t>LIGHT PROGRAM FUNCITON KEYBOARD</t>
-  </si>
-  <si>
     <t>MOTION SENSOR</t>
   </si>
   <si>
@@ -303,13 +297,46 @@
   </si>
   <si>
     <t>MOBILE DEVICES</t>
+  </si>
+  <si>
+    <t>Power systems</t>
+  </si>
+  <si>
+    <t>LIGHT PROGRAM FUNCTION KEYBOARD</t>
+  </si>
+  <si>
+    <t>DEVICE DRIVERS</t>
+  </si>
+  <si>
+    <t>FIRMWARE</t>
+  </si>
+  <si>
+    <t>UTILITY</t>
+  </si>
+  <si>
+    <t>WORD PROCESSORS</t>
+  </si>
+  <si>
+    <t>DATABASE SOFTWARE</t>
+  </si>
+  <si>
+    <t>MULTIMEDIA SOFTWARE</t>
+  </si>
+  <si>
+    <t>GRAPHICS SOFTWARE</t>
+  </si>
+  <si>
+    <t>WEB BROWSERS</t>
+  </si>
+  <si>
+    <t>LICENSES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +358,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -359,12 +392,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -680,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +725,7 @@
     <col min="1" max="2" width="28.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -728,17 +763,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,17 +781,17 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -764,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -787,12 +822,12 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -800,32 +835,32 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -833,22 +868,22 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -856,27 +891,27 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -884,22 +919,22 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
@@ -907,27 +942,27 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
@@ -935,37 +970,37 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="3:4" x14ac:dyDescent="0.25">
@@ -973,156 +1008,195 @@
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>76</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
